--- a/data/pca/factorExposure/factorExposure_2012-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-12.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01676535379437228</v>
+        <v>-0.01686363188345903</v>
       </c>
       <c r="C2">
-        <v>-0.03528000249387533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02902352565857173</v>
+      </c>
+      <c r="D2">
+        <v>0.002285339174804337</v>
+      </c>
+      <c r="E2">
+        <v>-0.0103768180423336</v>
+      </c>
+      <c r="F2">
+        <v>0.007945602171848627</v>
+      </c>
+      <c r="G2">
+        <v>0.003034442098679349</v>
+      </c>
+      <c r="H2">
+        <v>0.0537723949429422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07596031223754707</v>
+        <v>-0.08837747352638639</v>
       </c>
       <c r="C4">
-        <v>-0.05544014459967537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0387990588660298</v>
+      </c>
+      <c r="D4">
+        <v>0.06593224054683799</v>
+      </c>
+      <c r="E4">
+        <v>-0.01516875632614165</v>
+      </c>
+      <c r="F4">
+        <v>0.02909001538667841</v>
+      </c>
+      <c r="G4">
+        <v>0.01060340344426168</v>
+      </c>
+      <c r="H4">
+        <v>-0.04886356963902543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1068430521906391</v>
+        <v>-0.1191765490380216</v>
       </c>
       <c r="C6">
-        <v>-0.05486186437671079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03220671382827774</v>
+      </c>
+      <c r="D6">
+        <v>0.01006590398620539</v>
+      </c>
+      <c r="E6">
+        <v>0.00756175062021351</v>
+      </c>
+      <c r="F6">
+        <v>0.06265719702278069</v>
+      </c>
+      <c r="G6">
+        <v>0.02120700177718903</v>
+      </c>
+      <c r="H6">
+        <v>0.08055165209700847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04985887274649798</v>
+        <v>-0.06403518102925881</v>
       </c>
       <c r="C7">
-        <v>-0.02841898422935902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01999188529394239</v>
+      </c>
+      <c r="D7">
+        <v>0.04492179020775385</v>
+      </c>
+      <c r="E7">
+        <v>-0.03580992584134524</v>
+      </c>
+      <c r="F7">
+        <v>0.03790549695896148</v>
+      </c>
+      <c r="G7">
+        <v>-0.04045776329431944</v>
+      </c>
+      <c r="H7">
+        <v>-0.0230643882827662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03595981103520551</v>
+        <v>-0.03992693299773068</v>
       </c>
       <c r="C8">
-        <v>-0.01159618112429963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007622119837458781</v>
+      </c>
+      <c r="D8">
+        <v>0.02449867153012013</v>
+      </c>
+      <c r="E8">
+        <v>-0.03046938614746984</v>
+      </c>
+      <c r="F8">
+        <v>0.04715723131046153</v>
+      </c>
+      <c r="G8">
+        <v>0.04382439962159742</v>
+      </c>
+      <c r="H8">
+        <v>-0.007408095082405415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06869180760456928</v>
+        <v>-0.07938378367627361</v>
       </c>
       <c r="C9">
-        <v>-0.045953834073665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02972503106231704</v>
+      </c>
+      <c r="D9">
+        <v>0.06392552815787733</v>
+      </c>
+      <c r="E9">
+        <v>-0.03685764058208594</v>
+      </c>
+      <c r="F9">
+        <v>0.0326920752950078</v>
+      </c>
+      <c r="G9">
+        <v>0.01271203096643437</v>
+      </c>
+      <c r="H9">
+        <v>-0.0591403707046327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02990856363743707</v>
+        <v>-0.03565347753022025</v>
       </c>
       <c r="C10">
-        <v>-0.034055758156539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04149286059790516</v>
+      </c>
+      <c r="D10">
+        <v>-0.1737945990482343</v>
+      </c>
+      <c r="E10">
+        <v>-0.05015548750650901</v>
+      </c>
+      <c r="F10">
+        <v>0.04390822271750252</v>
+      </c>
+      <c r="G10">
+        <v>-0.04052517403667384</v>
+      </c>
+      <c r="H10">
+        <v>0.0356006670653058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07073689469480988</v>
+        <v>-0.07648076262075115</v>
       </c>
       <c r="C11">
-        <v>-0.04699494659924468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02674283752441984</v>
+      </c>
+      <c r="D11">
+        <v>0.06256656394106959</v>
+      </c>
+      <c r="E11">
+        <v>0.003469272176073137</v>
+      </c>
+      <c r="F11">
+        <v>0.02622381688602506</v>
+      </c>
+      <c r="G11">
+        <v>0.002234195904883287</v>
+      </c>
+      <c r="H11">
+        <v>-0.1015293772053334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05714860117510852</v>
+        <v>-0.06608889507544508</v>
       </c>
       <c r="C12">
-        <v>-0.05080781034722483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03510770492343843</v>
+      </c>
+      <c r="D12">
+        <v>0.04970374703880082</v>
+      </c>
+      <c r="E12">
+        <v>-0.01364285178953861</v>
+      </c>
+      <c r="F12">
+        <v>0.01542543871226203</v>
+      </c>
+      <c r="G12">
+        <v>0.003707764973278931</v>
+      </c>
+      <c r="H12">
+        <v>-0.05792542795494394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05925856977146446</v>
+        <v>-0.06501260459468801</v>
       </c>
       <c r="C13">
-        <v>-0.04143159980255849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02577627265834245</v>
+      </c>
+      <c r="D13">
+        <v>0.04269541703898623</v>
+      </c>
+      <c r="E13">
+        <v>-0.01649685980792938</v>
+      </c>
+      <c r="F13">
+        <v>0.003869368966653341</v>
+      </c>
+      <c r="G13">
+        <v>1.250155328767619e-05</v>
+      </c>
+      <c r="H13">
+        <v>-0.05345925795058511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03279953757959603</v>
+        <v>-0.04098557093265991</v>
       </c>
       <c r="C14">
-        <v>-0.03128525594825659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02718658769389055</v>
+      </c>
+      <c r="D14">
+        <v>0.004528829626882275</v>
+      </c>
+      <c r="E14">
+        <v>-0.03080726469150198</v>
+      </c>
+      <c r="F14">
+        <v>0.01478871835081275</v>
+      </c>
+      <c r="G14">
+        <v>0.01849486871082024</v>
+      </c>
+      <c r="H14">
+        <v>-0.05695589865550126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03958377900367466</v>
+        <v>-0.03984520570546141</v>
       </c>
       <c r="C15">
-        <v>-0.01148393208223122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003270437925466483</v>
+      </c>
+      <c r="D15">
+        <v>0.005955715461868899</v>
+      </c>
+      <c r="E15">
+        <v>-0.04282262175053429</v>
+      </c>
+      <c r="F15">
+        <v>-0.00465259066247563</v>
+      </c>
+      <c r="G15">
+        <v>0.02769284029291985</v>
+      </c>
+      <c r="H15">
+        <v>-0.04236964356214085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06019230179195181</v>
+        <v>-0.06951505929048182</v>
       </c>
       <c r="C16">
-        <v>-0.04263289969014222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02755846801425752</v>
+      </c>
+      <c r="D16">
+        <v>0.06251858712680171</v>
+      </c>
+      <c r="E16">
+        <v>-0.006651062072706829</v>
+      </c>
+      <c r="F16">
+        <v>0.02307764906895347</v>
+      </c>
+      <c r="G16">
+        <v>-0.002338381866574189</v>
+      </c>
+      <c r="H16">
+        <v>-0.05958489404785997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06479709590007011</v>
+        <v>-0.06365728029631955</v>
       </c>
       <c r="C20">
-        <v>-0.03327466892085169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0138935192585902</v>
+      </c>
+      <c r="D20">
+        <v>0.04055165711707298</v>
+      </c>
+      <c r="E20">
+        <v>-0.032613289791427</v>
+      </c>
+      <c r="F20">
+        <v>0.01893704475537142</v>
+      </c>
+      <c r="G20">
+        <v>0.01406462520680343</v>
+      </c>
+      <c r="H20">
+        <v>-0.0566191471394641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02258481216325129</v>
+        <v>-0.02384009550684125</v>
       </c>
       <c r="C21">
-        <v>0.003601994862340133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01046795869215668</v>
+      </c>
+      <c r="D21">
+        <v>0.030598895389546</v>
+      </c>
+      <c r="E21">
+        <v>-0.03977545876227158</v>
+      </c>
+      <c r="F21">
+        <v>-0.008139817637929663</v>
+      </c>
+      <c r="G21">
+        <v>0.006344867291879846</v>
+      </c>
+      <c r="H21">
+        <v>0.04815480840798513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07178128674166068</v>
+        <v>-0.06860910775002435</v>
       </c>
       <c r="C22">
-        <v>-0.06061775418967642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03965259375686205</v>
+      </c>
+      <c r="D22">
+        <v>0.07459731320630167</v>
+      </c>
+      <c r="E22">
+        <v>-0.5743719953633145</v>
+      </c>
+      <c r="F22">
+        <v>-0.2109316797586423</v>
+      </c>
+      <c r="G22">
+        <v>-0.05498175036357589</v>
+      </c>
+      <c r="H22">
+        <v>0.1947061549405254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07277139313844666</v>
+        <v>-0.0692123114712369</v>
       </c>
       <c r="C23">
-        <v>-0.05955468768788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03836082005210133</v>
+      </c>
+      <c r="D23">
+        <v>0.07557012876958973</v>
+      </c>
+      <c r="E23">
+        <v>-0.5739116360724151</v>
+      </c>
+      <c r="F23">
+        <v>-0.209909709963358</v>
+      </c>
+      <c r="G23">
+        <v>-0.05314612107551542</v>
+      </c>
+      <c r="H23">
+        <v>0.1902858766856607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06949398498642195</v>
+        <v>-0.07923315681708237</v>
       </c>
       <c r="C24">
-        <v>-0.05074682449826213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.0331132024439562</v>
+      </c>
+      <c r="D24">
+        <v>0.05915324616143942</v>
+      </c>
+      <c r="E24">
+        <v>-0.0175341304296845</v>
+      </c>
+      <c r="F24">
+        <v>0.03241427041028982</v>
+      </c>
+      <c r="G24">
+        <v>0.009331550740540153</v>
+      </c>
+      <c r="H24">
+        <v>-0.06781280922125592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07022372479513572</v>
+        <v>-0.07699929326868746</v>
       </c>
       <c r="C25">
-        <v>-0.0567992963905791</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03770424924137177</v>
+      </c>
+      <c r="D25">
+        <v>0.05251256382607498</v>
+      </c>
+      <c r="E25">
+        <v>-0.01952878407100359</v>
+      </c>
+      <c r="F25">
+        <v>0.0262286896327337</v>
+      </c>
+      <c r="G25">
+        <v>0.0208894875211608</v>
+      </c>
+      <c r="H25">
+        <v>-0.07165607785491228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04550496025635235</v>
+        <v>-0.04762009687458305</v>
       </c>
       <c r="C26">
-        <v>-0.01033606680414027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001499642155721633</v>
+      </c>
+      <c r="D26">
+        <v>0.02065089625359276</v>
+      </c>
+      <c r="E26">
+        <v>-0.05246721742156773</v>
+      </c>
+      <c r="F26">
+        <v>0.01993362188278483</v>
+      </c>
+      <c r="G26">
+        <v>-0.0003360365884519275</v>
+      </c>
+      <c r="H26">
+        <v>-0.06484398477488419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05595837853785218</v>
+        <v>-0.06575588654912666</v>
       </c>
       <c r="C28">
-        <v>-0.07302989905745856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08175280086572542</v>
+      </c>
+      <c r="D28">
+        <v>-0.3101157224072334</v>
+      </c>
+      <c r="E28">
+        <v>-0.02630049246891664</v>
+      </c>
+      <c r="F28">
+        <v>0.0569612656638775</v>
+      </c>
+      <c r="G28">
+        <v>0.02103186664767087</v>
+      </c>
+      <c r="H28">
+        <v>0.04061861328719568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04056755155837637</v>
+        <v>-0.0482210834380648</v>
       </c>
       <c r="C29">
-        <v>-0.03179032994341898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02504169277087209</v>
+      </c>
+      <c r="D29">
+        <v>0.005340876942681553</v>
+      </c>
+      <c r="E29">
+        <v>-0.05619679543516417</v>
+      </c>
+      <c r="F29">
+        <v>0.0005485721460814154</v>
+      </c>
+      <c r="G29">
+        <v>0.001964276026248662</v>
+      </c>
+      <c r="H29">
+        <v>-0.08303977216569301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1265825231098672</v>
+        <v>-0.1332664757120244</v>
       </c>
       <c r="C30">
-        <v>-0.0951637196688656</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06358523820256515</v>
+      </c>
+      <c r="D30">
+        <v>0.07305679053610833</v>
+      </c>
+      <c r="E30">
+        <v>-0.0854026568435174</v>
+      </c>
+      <c r="F30">
+        <v>-0.008848107798868639</v>
+      </c>
+      <c r="G30">
+        <v>0.06612586659468361</v>
+      </c>
+      <c r="H30">
+        <v>0.01815884227634668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04217347223392438</v>
+        <v>-0.04815018529696917</v>
       </c>
       <c r="C31">
-        <v>-0.02013504550064116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.0117309072088054</v>
+      </c>
+      <c r="D31">
+        <v>0.02531988564691575</v>
+      </c>
+      <c r="E31">
+        <v>-0.02903211067331157</v>
+      </c>
+      <c r="F31">
+        <v>0.008600663881566989</v>
+      </c>
+      <c r="G31">
+        <v>-0.01791677288872776</v>
+      </c>
+      <c r="H31">
+        <v>-0.07006765037674277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03637433633052058</v>
+        <v>-0.03784903829240991</v>
       </c>
       <c r="C32">
-        <v>-0.02315934948563454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01688684131627688</v>
+      </c>
+      <c r="D32">
+        <v>0.008883267305208555</v>
+      </c>
+      <c r="E32">
+        <v>-0.07018178381840125</v>
+      </c>
+      <c r="F32">
+        <v>-0.01686123575709151</v>
+      </c>
+      <c r="G32">
+        <v>0.03710590493766733</v>
+      </c>
+      <c r="H32">
+        <v>-0.05830415981652759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08158580188713313</v>
+        <v>-0.09499642121633127</v>
       </c>
       <c r="C33">
-        <v>-0.04424202755539696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02626241146802538</v>
+      </c>
+      <c r="D33">
+        <v>0.05258010999661075</v>
+      </c>
+      <c r="E33">
+        <v>-0.01585096426237804</v>
+      </c>
+      <c r="F33">
+        <v>0.000336058005431919</v>
+      </c>
+      <c r="G33">
+        <v>-0.005434142236008212</v>
+      </c>
+      <c r="H33">
+        <v>-0.07871884366507165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05556374016446495</v>
+        <v>-0.06135137445989545</v>
       </c>
       <c r="C34">
-        <v>-0.02858048935310532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01324566729635029</v>
+      </c>
+      <c r="D34">
+        <v>0.05437493282010085</v>
+      </c>
+      <c r="E34">
+        <v>-0.01044544438642726</v>
+      </c>
+      <c r="F34">
+        <v>0.01359430725959366</v>
+      </c>
+      <c r="G34">
+        <v>0.008744709120647965</v>
+      </c>
+      <c r="H34">
+        <v>-0.05908241866416156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0373672124984637</v>
+        <v>-0.040386141811369</v>
       </c>
       <c r="C35">
-        <v>-0.009491776699654246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002237656701306008</v>
+      </c>
+      <c r="D35">
+        <v>0.007111326824005965</v>
+      </c>
+      <c r="E35">
+        <v>-0.02011310753930019</v>
+      </c>
+      <c r="F35">
+        <v>-0.01515022471614529</v>
+      </c>
+      <c r="G35">
+        <v>-0.008448900807194699</v>
+      </c>
+      <c r="H35">
+        <v>-0.03145179114056973</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02040327220311927</v>
+        <v>-0.02691720595338808</v>
       </c>
       <c r="C36">
-        <v>-0.01738503664405802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01354279086445933</v>
+      </c>
+      <c r="D36">
+        <v>0.01430201012514563</v>
+      </c>
+      <c r="E36">
+        <v>-0.04577039757426651</v>
+      </c>
+      <c r="F36">
+        <v>0.01356505471531692</v>
+      </c>
+      <c r="G36">
+        <v>-0.005564573663409496</v>
+      </c>
+      <c r="H36">
+        <v>-0.05148406277957891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04071222536378034</v>
+        <v>-0.04421619552471511</v>
       </c>
       <c r="C38">
-        <v>-0.003908101460449667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002840235880796859</v>
+      </c>
+      <c r="D38">
+        <v>0.01779541464340046</v>
+      </c>
+      <c r="E38">
+        <v>-0.05842051077757388</v>
+      </c>
+      <c r="F38">
+        <v>-0.01951483096276591</v>
+      </c>
+      <c r="G38">
+        <v>0.01596489079205109</v>
+      </c>
+      <c r="H38">
+        <v>-0.02540339328208929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09419645911132586</v>
+        <v>-0.1047652762835898</v>
       </c>
       <c r="C39">
-        <v>-0.07419701779139823</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05004162422606956</v>
+      </c>
+      <c r="D39">
+        <v>0.06436762208846276</v>
+      </c>
+      <c r="E39">
+        <v>0.003570635532926949</v>
+      </c>
+      <c r="F39">
+        <v>0.008105146397701586</v>
+      </c>
+      <c r="G39">
+        <v>0.04095798620604317</v>
+      </c>
+      <c r="H39">
+        <v>-0.07245732227136523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07379816881761002</v>
+        <v>-0.07205524897309741</v>
       </c>
       <c r="C40">
-        <v>-0.04059088385466659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01922465874858961</v>
+      </c>
+      <c r="D40">
+        <v>0.01271634783098354</v>
+      </c>
+      <c r="E40">
+        <v>-0.01861116204101398</v>
+      </c>
+      <c r="F40">
+        <v>-0.05678300716483092</v>
+      </c>
+      <c r="G40">
+        <v>0.04835540926132446</v>
+      </c>
+      <c r="H40">
+        <v>0.07768142406653504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04055256338378285</v>
+        <v>-0.04351145701163002</v>
       </c>
       <c r="C41">
-        <v>-0.00647732278867469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001463394388906348</v>
+      </c>
+      <c r="D41">
+        <v>0.03538956536971728</v>
+      </c>
+      <c r="E41">
+        <v>-0.003386103820807217</v>
+      </c>
+      <c r="F41">
+        <v>-0.01508602713046442</v>
+      </c>
+      <c r="G41">
+        <v>0.01596368288646023</v>
+      </c>
+      <c r="H41">
+        <v>-0.03559964150111278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04639037272678879</v>
+        <v>-0.05718356806363616</v>
       </c>
       <c r="C43">
-        <v>-0.02559971220423321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01714531698331216</v>
+      </c>
+      <c r="D43">
+        <v>0.02640171874154082</v>
+      </c>
+      <c r="E43">
+        <v>-0.01910262592970595</v>
+      </c>
+      <c r="F43">
+        <v>0.01157456259743282</v>
+      </c>
+      <c r="G43">
+        <v>-0.008854094143103461</v>
+      </c>
+      <c r="H43">
+        <v>-0.05180323762767734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09507497219099076</v>
+        <v>-0.09355047019921058</v>
       </c>
       <c r="C44">
-        <v>-0.09548986916683774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06442392158903999</v>
+      </c>
+      <c r="D44">
+        <v>0.0635138022215144</v>
+      </c>
+      <c r="E44">
+        <v>-0.09488937016068479</v>
+      </c>
+      <c r="F44">
+        <v>0.03997963918816295</v>
+      </c>
+      <c r="G44">
+        <v>0.02892053442549556</v>
+      </c>
+      <c r="H44">
+        <v>-0.01313612720230468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02473683633156605</v>
+        <v>-0.03180481638662629</v>
       </c>
       <c r="C46">
-        <v>-0.01342560853083158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009592014243394828</v>
+      </c>
+      <c r="D46">
+        <v>0.03171796868507313</v>
+      </c>
+      <c r="E46">
+        <v>-0.02845527055362733</v>
+      </c>
+      <c r="F46">
+        <v>0.0144425732673065</v>
+      </c>
+      <c r="G46">
+        <v>0.007248339301779936</v>
+      </c>
+      <c r="H46">
+        <v>-0.03260414707450156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02824136812240379</v>
+        <v>-0.03653517331292382</v>
       </c>
       <c r="C47">
-        <v>-0.02576092729383375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.02083337913086267</v>
+      </c>
+      <c r="D47">
+        <v>0.01591028857172793</v>
+      </c>
+      <c r="E47">
+        <v>-0.05480273202054452</v>
+      </c>
+      <c r="F47">
+        <v>0.005927223582009491</v>
+      </c>
+      <c r="G47">
+        <v>-0.04007601780558016</v>
+      </c>
+      <c r="H47">
+        <v>-0.02237699728710671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03137900304582535</v>
+        <v>-0.03643394585768335</v>
       </c>
       <c r="C48">
-        <v>-0.01595848422581031</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.008978839244103901</v>
+      </c>
+      <c r="D48">
+        <v>0.02037840687314261</v>
+      </c>
+      <c r="E48">
+        <v>-0.04329564421628351</v>
+      </c>
+      <c r="F48">
+        <v>0.0009032101021838893</v>
+      </c>
+      <c r="G48">
+        <v>0.01459505226863014</v>
+      </c>
+      <c r="H48">
+        <v>-0.05008378819168912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1634353689959974</v>
+        <v>-0.1911326206456651</v>
       </c>
       <c r="C49">
-        <v>-0.06459504359209051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03484819475970059</v>
+      </c>
+      <c r="D49">
+        <v>0.02644161288988269</v>
+      </c>
+      <c r="E49">
+        <v>0.1508137209649487</v>
+      </c>
+      <c r="F49">
+        <v>0.07395719599260225</v>
+      </c>
+      <c r="G49">
+        <v>-0.07420707109176516</v>
+      </c>
+      <c r="H49">
+        <v>0.2308001329015294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0373912401891922</v>
+        <v>-0.04445284504708234</v>
       </c>
       <c r="C50">
-        <v>-0.02295735505819803</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01579503294087331</v>
+      </c>
+      <c r="D50">
+        <v>0.03306364560960137</v>
+      </c>
+      <c r="E50">
+        <v>-0.05490376195005021</v>
+      </c>
+      <c r="F50">
+        <v>0.009116825460296539</v>
+      </c>
+      <c r="G50">
+        <v>-0.01378303229573915</v>
+      </c>
+      <c r="H50">
+        <v>-0.06546326801056331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02568313745659616</v>
+        <v>-0.02944901186794762</v>
       </c>
       <c r="C51">
-        <v>-0.01028051474088407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.005968866965755523</v>
+      </c>
+      <c r="D51">
+        <v>0.02137388281075015</v>
+      </c>
+      <c r="E51">
+        <v>-0.01561608542909917</v>
+      </c>
+      <c r="F51">
+        <v>0.01568578707255816</v>
+      </c>
+      <c r="G51">
+        <v>0.002115429253029748</v>
+      </c>
+      <c r="H51">
+        <v>0.006131506131822329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1520012624297544</v>
+        <v>-0.1626824415847635</v>
       </c>
       <c r="C53">
-        <v>-0.08364317159840566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05348137027502744</v>
+      </c>
+      <c r="D53">
+        <v>0.01853376115429765</v>
+      </c>
+      <c r="E53">
+        <v>0.02254497561998167</v>
+      </c>
+      <c r="F53">
+        <v>0.01435038096272968</v>
+      </c>
+      <c r="G53">
+        <v>0.002573414268798572</v>
+      </c>
+      <c r="H53">
+        <v>-0.1480799274933107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0556175663575745</v>
+        <v>-0.05732169025631114</v>
       </c>
       <c r="C54">
-        <v>-0.02507892875712475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01237248448750512</v>
+      </c>
+      <c r="D54">
+        <v>0.01799665244122698</v>
+      </c>
+      <c r="E54">
+        <v>-0.05139435177503415</v>
+      </c>
+      <c r="F54">
+        <v>0.006052512061054373</v>
+      </c>
+      <c r="G54">
+        <v>0.01652694371688377</v>
+      </c>
+      <c r="H54">
+        <v>-0.05570374003905702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09972836567278381</v>
+        <v>-0.1038140021163013</v>
       </c>
       <c r="C55">
-        <v>-0.05807221209988079</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.0365277484298667</v>
+      </c>
+      <c r="D55">
+        <v>0.02433342195437507</v>
+      </c>
+      <c r="E55">
+        <v>-0.01820031001228791</v>
+      </c>
+      <c r="F55">
+        <v>0.01406156197171412</v>
+      </c>
+      <c r="G55">
+        <v>0.01259832150262547</v>
+      </c>
+      <c r="H55">
+        <v>-0.134763179017463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1463560152962828</v>
+        <v>-0.1599004039127623</v>
       </c>
       <c r="C56">
-        <v>-0.09410341435884183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0642392897645279</v>
+      </c>
+      <c r="D56">
+        <v>0.01875463761613716</v>
+      </c>
+      <c r="E56">
+        <v>0.02461513480448387</v>
+      </c>
+      <c r="F56">
+        <v>0.03148504225063584</v>
+      </c>
+      <c r="G56">
+        <v>-0.002534753287636338</v>
+      </c>
+      <c r="H56">
+        <v>-0.1529666265248296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1193395680246527</v>
+        <v>-0.09781725901593398</v>
       </c>
       <c r="C58">
-        <v>-0.005283420278140031</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03433274923472113</v>
+      </c>
+      <c r="D58">
+        <v>0.04191980925855318</v>
+      </c>
+      <c r="E58">
+        <v>-0.1643918247527529</v>
+      </c>
+      <c r="F58">
+        <v>-0.002677657819196687</v>
+      </c>
+      <c r="G58">
+        <v>-0.06869220090453697</v>
+      </c>
+      <c r="H58">
+        <v>0.1746760090583533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1155942398234879</v>
+        <v>-0.1391914068021655</v>
       </c>
       <c r="C59">
-        <v>-0.07717936875384854</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08409203623811456</v>
+      </c>
+      <c r="D59">
+        <v>-0.3598314683313237</v>
+      </c>
+      <c r="E59">
+        <v>-0.03020128438523777</v>
+      </c>
+      <c r="F59">
+        <v>0.01253017423568525</v>
+      </c>
+      <c r="G59">
+        <v>-0.04476428904159558</v>
+      </c>
+      <c r="H59">
+        <v>-0.003834274154012504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2028943535396413</v>
+        <v>-0.2311692360431136</v>
       </c>
       <c r="C60">
-        <v>-0.1053424474549517</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06699833581538492</v>
+      </c>
+      <c r="D60">
+        <v>0.03691532894417039</v>
+      </c>
+      <c r="E60">
+        <v>0.09667586774023416</v>
+      </c>
+      <c r="F60">
+        <v>0.06853164079688361</v>
+      </c>
+      <c r="G60">
+        <v>0.01089321082458408</v>
+      </c>
+      <c r="H60">
+        <v>0.1755594099117212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0794184126488816</v>
+        <v>-0.08799815519964937</v>
       </c>
       <c r="C61">
-        <v>-0.0517567719773058</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03504432708087655</v>
+      </c>
+      <c r="D61">
+        <v>0.04484433272802695</v>
+      </c>
+      <c r="E61">
+        <v>0.0005711537334827613</v>
+      </c>
+      <c r="F61">
+        <v>0.002372172253395716</v>
+      </c>
+      <c r="G61">
+        <v>0.004091773150545913</v>
+      </c>
+      <c r="H61">
+        <v>-0.07281958773431804</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.12970965496428</v>
+        <v>-0.1404221817789028</v>
       </c>
       <c r="C62">
-        <v>-0.07060065469557672</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04369009014946194</v>
+      </c>
+      <c r="D62">
+        <v>0.02640604476201408</v>
+      </c>
+      <c r="E62">
+        <v>0.06133419362218946</v>
+      </c>
+      <c r="F62">
+        <v>0.01439636791686181</v>
+      </c>
+      <c r="G62">
+        <v>0.03566614615473665</v>
+      </c>
+      <c r="H62">
+        <v>-0.1532719748990139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05121157091304584</v>
+        <v>-0.05011561794222006</v>
       </c>
       <c r="C63">
-        <v>-0.02607742654171073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01359475737878926</v>
+      </c>
+      <c r="D63">
+        <v>0.02064065412421419</v>
+      </c>
+      <c r="E63">
+        <v>-0.05385891208958429</v>
+      </c>
+      <c r="F63">
+        <v>-0.01114163947120916</v>
+      </c>
+      <c r="G63">
+        <v>0.03496754358654537</v>
+      </c>
+      <c r="H63">
+        <v>-0.06113211725106395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1077754244628401</v>
+        <v>-0.1097427523271659</v>
       </c>
       <c r="C64">
-        <v>-0.02852410174343283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004984735224471021</v>
+      </c>
+      <c r="D64">
+        <v>0.04206233680301615</v>
+      </c>
+      <c r="E64">
+        <v>-0.04376763039865855</v>
+      </c>
+      <c r="F64">
+        <v>0.04557545826801724</v>
+      </c>
+      <c r="G64">
+        <v>0.04943929681244824</v>
+      </c>
+      <c r="H64">
+        <v>-0.05936878822061257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1202419528264569</v>
+        <v>-0.1268808534417374</v>
       </c>
       <c r="C65">
-        <v>-0.06096978549483931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03747209860468435</v>
+      </c>
+      <c r="D65">
+        <v>0.0008544730053675304</v>
+      </c>
+      <c r="E65">
+        <v>-0.009244473222759121</v>
+      </c>
+      <c r="F65">
+        <v>0.06896972297300207</v>
+      </c>
+      <c r="G65">
+        <v>0.04993386158980706</v>
+      </c>
+      <c r="H65">
+        <v>0.09988769107747231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1440426322086327</v>
+        <v>-0.1557175958757573</v>
       </c>
       <c r="C66">
-        <v>-0.07852817165728179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04517768298855532</v>
+      </c>
+      <c r="D66">
+        <v>0.1016085241416471</v>
+      </c>
+      <c r="E66">
+        <v>0.02923884257539706</v>
+      </c>
+      <c r="F66">
+        <v>0.01691586805379572</v>
+      </c>
+      <c r="G66">
+        <v>0.05206861241857615</v>
+      </c>
+      <c r="H66">
+        <v>-0.1547337243910256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07358516754486719</v>
+        <v>-0.08324623982608242</v>
       </c>
       <c r="C67">
-        <v>-0.01604134700056123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003960734398919353</v>
+      </c>
+      <c r="D67">
+        <v>0.03091712180477458</v>
+      </c>
+      <c r="E67">
+        <v>-0.02856895245703733</v>
+      </c>
+      <c r="F67">
+        <v>0.008651984882358573</v>
+      </c>
+      <c r="G67">
+        <v>-0.005595788990702645</v>
+      </c>
+      <c r="H67">
+        <v>-0.02822049489644728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05948676300331777</v>
+        <v>-0.06043054189233012</v>
       </c>
       <c r="C68">
-        <v>-0.0498935140435311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05550761899409056</v>
+      </c>
+      <c r="D68">
+        <v>-0.2688230234268704</v>
+      </c>
+      <c r="E68">
+        <v>-0.04053753126097864</v>
+      </c>
+      <c r="F68">
+        <v>0.01450123002595171</v>
+      </c>
+      <c r="G68">
+        <v>-0.01656285848609127</v>
+      </c>
+      <c r="H68">
+        <v>-0.009041787439154078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05212574256869196</v>
+        <v>-0.05265098293545149</v>
       </c>
       <c r="C69">
-        <v>-0.01961641735529199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.005295372779033177</v>
+      </c>
+      <c r="D69">
+        <v>0.01781911291770917</v>
+      </c>
+      <c r="E69">
+        <v>-0.02697283873863505</v>
+      </c>
+      <c r="F69">
+        <v>-0.007256274097068238</v>
+      </c>
+      <c r="G69">
+        <v>-0.01139295093314313</v>
+      </c>
+      <c r="H69">
+        <v>-0.05038732075146839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005129555971493272</v>
+        <v>-0.0264623696101572</v>
       </c>
       <c r="C70">
-        <v>0.004449610043996029</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004457828010125425</v>
+      </c>
+      <c r="D70">
+        <v>0.0004352128982212872</v>
+      </c>
+      <c r="E70">
+        <v>0.02628550709137153</v>
+      </c>
+      <c r="F70">
+        <v>0.03164609160016746</v>
+      </c>
+      <c r="G70">
+        <v>-0.02387001427570514</v>
+      </c>
+      <c r="H70">
+        <v>0.04921075053096693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06113782694374313</v>
+        <v>-0.06373595580887521</v>
       </c>
       <c r="C71">
-        <v>-0.04950957818333011</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05779765441680499</v>
+      </c>
+      <c r="D71">
+        <v>-0.2963964074573118</v>
+      </c>
+      <c r="E71">
+        <v>-0.03481470435943566</v>
+      </c>
+      <c r="F71">
+        <v>0.04440546733549081</v>
+      </c>
+      <c r="G71">
+        <v>-0.003458537586120968</v>
+      </c>
+      <c r="H71">
+        <v>-0.0183724247846341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1389553233292711</v>
+        <v>-0.1497892910045379</v>
       </c>
       <c r="C72">
-        <v>-0.06555634516434344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0371595447251085</v>
+      </c>
+      <c r="D72">
+        <v>-0.01170674694664526</v>
+      </c>
+      <c r="E72">
+        <v>0.1165120111832707</v>
+      </c>
+      <c r="F72">
+        <v>-0.1556412647674155</v>
+      </c>
+      <c r="G72">
+        <v>0.116310338179994</v>
+      </c>
+      <c r="H72">
+        <v>-0.01299033649034623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.266336432926306</v>
+        <v>-0.2842632495244816</v>
       </c>
       <c r="C73">
-        <v>-0.1141697109234802</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.04930154440349452</v>
+      </c>
+      <c r="D73">
+        <v>0.09764966363758808</v>
+      </c>
+      <c r="E73">
+        <v>0.2268822827445343</v>
+      </c>
+      <c r="F73">
+        <v>0.1243986462114787</v>
+      </c>
+      <c r="G73">
+        <v>-0.2185723150911432</v>
+      </c>
+      <c r="H73">
+        <v>0.5059648336811312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07920036179857343</v>
+        <v>-0.09183323302647263</v>
       </c>
       <c r="C74">
-        <v>-0.07865216389306304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05915920597892461</v>
+      </c>
+      <c r="D74">
+        <v>0.03229035741331542</v>
+      </c>
+      <c r="E74">
+        <v>0.004622555236608272</v>
+      </c>
+      <c r="F74">
+        <v>-0.01143021406197163</v>
+      </c>
+      <c r="G74">
+        <v>-0.02946661474308533</v>
+      </c>
+      <c r="H74">
+        <v>-0.1189338661351002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09524440277605016</v>
+        <v>-0.1010769361629916</v>
       </c>
       <c r="C75">
-        <v>-0.05417538670083873</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0274639088155569</v>
+      </c>
+      <c r="D75">
+        <v>0.01256287230441137</v>
+      </c>
+      <c r="E75">
+        <v>-0.01055688177765533</v>
+      </c>
+      <c r="F75">
+        <v>0.03013961902865687</v>
+      </c>
+      <c r="G75">
+        <v>-0.009679090519917262</v>
+      </c>
+      <c r="H75">
+        <v>-0.1143650793500601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1281039809955254</v>
+        <v>-0.1395233266543648</v>
       </c>
       <c r="C76">
-        <v>-0.08554306836727771</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05665514337254565</v>
+      </c>
+      <c r="D76">
+        <v>0.05213449545970356</v>
+      </c>
+      <c r="E76">
+        <v>-0.03203499078678642</v>
+      </c>
+      <c r="F76">
+        <v>0.04580627036434271</v>
+      </c>
+      <c r="G76">
+        <v>0.00664285453744501</v>
+      </c>
+      <c r="H76">
+        <v>-0.1493365112486606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1183077646419338</v>
+        <v>-0.1127484044641324</v>
       </c>
       <c r="C77">
-        <v>-0.02671162863054972</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.001939660562772708</v>
+      </c>
+      <c r="D77">
+        <v>0.01260236419721146</v>
+      </c>
+      <c r="E77">
+        <v>-0.00390290623868179</v>
+      </c>
+      <c r="F77">
+        <v>0.166968762722873</v>
+      </c>
+      <c r="G77">
+        <v>0.8701924167212719</v>
+      </c>
+      <c r="H77">
+        <v>0.2389936349469091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09536192534276815</v>
+        <v>-0.1335899800262477</v>
       </c>
       <c r="C78">
-        <v>-0.04127076729282313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03287986674358868</v>
+      </c>
+      <c r="D78">
+        <v>0.09680405070462307</v>
+      </c>
+      <c r="E78">
+        <v>-0.06025630302812966</v>
+      </c>
+      <c r="F78">
+        <v>0.02112055114371804</v>
+      </c>
+      <c r="G78">
+        <v>0.05152225274734399</v>
+      </c>
+      <c r="H78">
+        <v>0.05317957058994466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1465242904443543</v>
+        <v>-0.1523062756566325</v>
       </c>
       <c r="C79">
-        <v>-0.08385698393084474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04703259160900429</v>
+      </c>
+      <c r="D79">
+        <v>0.02664583570818804</v>
+      </c>
+      <c r="E79">
+        <v>0.01112393308208561</v>
+      </c>
+      <c r="F79">
+        <v>0.01450595263593466</v>
+      </c>
+      <c r="G79">
+        <v>-0.01738334260354426</v>
+      </c>
+      <c r="H79">
+        <v>-0.1632313551225966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04309480177574279</v>
+        <v>-0.04226779939739956</v>
       </c>
       <c r="C80">
-        <v>-0.01546266102682777</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005425641749568148</v>
+      </c>
+      <c r="D80">
+        <v>0.02191220254683709</v>
+      </c>
+      <c r="E80">
+        <v>0.003792756653849165</v>
+      </c>
+      <c r="F80">
+        <v>-0.009701550360507374</v>
+      </c>
+      <c r="G80">
+        <v>-0.03175328423178304</v>
+      </c>
+      <c r="H80">
+        <v>-0.04781372143255438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1179681867261646</v>
+        <v>-0.12168122600102</v>
       </c>
       <c r="C81">
-        <v>-0.06736064142569723</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03717617462714833</v>
+      </c>
+      <c r="D81">
+        <v>0.02569116194267415</v>
+      </c>
+      <c r="E81">
+        <v>-0.03042206068728901</v>
+      </c>
+      <c r="F81">
+        <v>0.008672891173896812</v>
+      </c>
+      <c r="G81">
+        <v>-0.03281245103877737</v>
+      </c>
+      <c r="H81">
+        <v>-0.1617542721491751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1266197857666147</v>
+        <v>-0.1295676656037074</v>
       </c>
       <c r="C82">
-        <v>-0.07982530273753641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04869811718332609</v>
+      </c>
+      <c r="D82">
+        <v>0.02800715584131595</v>
+      </c>
+      <c r="E82">
+        <v>0.01155314554167095</v>
+      </c>
+      <c r="F82">
+        <v>0.0549959746709462</v>
+      </c>
+      <c r="G82">
+        <v>-0.03031962174186623</v>
+      </c>
+      <c r="H82">
+        <v>-0.1787599356706755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07792264184184013</v>
+        <v>-0.0863300226401638</v>
       </c>
       <c r="C83">
-        <v>0.002172515066630742</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01916697503770182</v>
+      </c>
+      <c r="D83">
+        <v>0.04142628479089198</v>
+      </c>
+      <c r="E83">
+        <v>-0.02340185744479084</v>
+      </c>
+      <c r="F83">
+        <v>0.05202622874145796</v>
+      </c>
+      <c r="G83">
+        <v>-0.09793206790171692</v>
+      </c>
+      <c r="H83">
+        <v>0.06468031712249266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02912193535160225</v>
+        <v>-0.03929895388404932</v>
       </c>
       <c r="C84">
-        <v>-0.02566262417867886</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.020281643714055</v>
+      </c>
+      <c r="D84">
+        <v>0.0300891112681002</v>
+      </c>
+      <c r="E84">
+        <v>-0.02565444076824525</v>
+      </c>
+      <c r="F84">
+        <v>-0.05378512069407484</v>
+      </c>
+      <c r="G84">
+        <v>-0.05402882039197092</v>
+      </c>
+      <c r="H84">
+        <v>-0.02723259505694944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1174787287036969</v>
+        <v>-0.118838451216896</v>
       </c>
       <c r="C85">
-        <v>-0.06159402806459596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0307247977294839</v>
+      </c>
+      <c r="D85">
+        <v>0.02578474980527032</v>
+      </c>
+      <c r="E85">
+        <v>-0.02138380547430946</v>
+      </c>
+      <c r="F85">
+        <v>0.04108100081632338</v>
+      </c>
+      <c r="G85">
+        <v>-0.008759886187016135</v>
+      </c>
+      <c r="H85">
+        <v>-0.1405760777881049</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05051996774329248</v>
+        <v>-0.05736208921936829</v>
       </c>
       <c r="C86">
-        <v>-0.03051650240412631</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01895061414984029</v>
+      </c>
+      <c r="D86">
+        <v>0.02379449182094999</v>
+      </c>
+      <c r="E86">
+        <v>-0.06099430726799762</v>
+      </c>
+      <c r="F86">
+        <v>0.02874949183567148</v>
+      </c>
+      <c r="G86">
+        <v>-0.005951161559263823</v>
+      </c>
+      <c r="H86">
+        <v>-0.01315731185252779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1217200475797647</v>
+        <v>-0.1226862813357582</v>
       </c>
       <c r="C87">
-        <v>-0.07067918523676273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03371659088471833</v>
+      </c>
+      <c r="D87">
+        <v>0.07801067111236042</v>
+      </c>
+      <c r="E87">
+        <v>-0.01773741370512723</v>
+      </c>
+      <c r="F87">
+        <v>-0.006461267034261768</v>
+      </c>
+      <c r="G87">
+        <v>0.1092968825491752</v>
+      </c>
+      <c r="H87">
+        <v>0.02343587336552161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05267473376098481</v>
+        <v>-0.05963733517574322</v>
       </c>
       <c r="C88">
-        <v>-0.03003866252479319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01883476414270462</v>
+      </c>
+      <c r="D88">
+        <v>0.02894907946387004</v>
+      </c>
+      <c r="E88">
+        <v>-0.02332222438592704</v>
+      </c>
+      <c r="F88">
+        <v>0.006780659026723938</v>
+      </c>
+      <c r="G88">
+        <v>0.01694560257929264</v>
+      </c>
+      <c r="H88">
+        <v>-0.06099669798272535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08276572498694616</v>
+        <v>-0.09557850955341607</v>
       </c>
       <c r="C89">
-        <v>-0.06504920008117444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07602038960005525</v>
+      </c>
+      <c r="D89">
+        <v>-0.3401151813649367</v>
+      </c>
+      <c r="E89">
+        <v>-0.07047253327996983</v>
+      </c>
+      <c r="F89">
+        <v>0.07948774529527172</v>
+      </c>
+      <c r="G89">
+        <v>-0.02217442869386807</v>
+      </c>
+      <c r="H89">
+        <v>-0.01168094026048235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07335725744800596</v>
+        <v>-0.08191100782928076</v>
       </c>
       <c r="C90">
-        <v>-0.05807188118394033</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06615352164175613</v>
+      </c>
+      <c r="D90">
+        <v>-0.3092098568661421</v>
+      </c>
+      <c r="E90">
+        <v>-0.06480293319586794</v>
+      </c>
+      <c r="F90">
+        <v>0.002840983479724978</v>
+      </c>
+      <c r="G90">
+        <v>-0.005444229771103076</v>
+      </c>
+      <c r="H90">
+        <v>-0.009733343101332928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08460865269452068</v>
+        <v>-0.08972362400493235</v>
       </c>
       <c r="C91">
-        <v>-0.05529595240642599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03325556985506897</v>
+      </c>
+      <c r="D91">
+        <v>0.03063325251085741</v>
+      </c>
+      <c r="E91">
+        <v>-0.01406223147140017</v>
+      </c>
+      <c r="F91">
+        <v>0.00427256174157291</v>
+      </c>
+      <c r="G91">
+        <v>-0.04585384804610267</v>
+      </c>
+      <c r="H91">
+        <v>-0.07564734366245685</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0793242038762092</v>
+        <v>-0.08569940618038513</v>
       </c>
       <c r="C92">
-        <v>-0.07561138049222148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08205836716841296</v>
+      </c>
+      <c r="D92">
+        <v>-0.3424107118243056</v>
+      </c>
+      <c r="E92">
+        <v>-0.04818218333973344</v>
+      </c>
+      <c r="F92">
+        <v>0.0333634183023961</v>
+      </c>
+      <c r="G92">
+        <v>0.005158318115214017</v>
+      </c>
+      <c r="H92">
+        <v>-0.02811357430020496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06534746541514241</v>
+        <v>-0.07941297708723234</v>
       </c>
       <c r="C93">
-        <v>-0.06278097580928325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07610433525213238</v>
+      </c>
+      <c r="D93">
+        <v>-0.3070798788151776</v>
+      </c>
+      <c r="E93">
+        <v>-0.03778437508583856</v>
+      </c>
+      <c r="F93">
+        <v>0.04135800295896533</v>
+      </c>
+      <c r="G93">
+        <v>0.006413621662085896</v>
+      </c>
+      <c r="H93">
+        <v>0.01140562044734045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1330994938244519</v>
+        <v>-0.1280908845798116</v>
       </c>
       <c r="C94">
-        <v>-0.05967797507681999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02159420682419187</v>
+      </c>
+      <c r="D94">
+        <v>0.04732670628386854</v>
+      </c>
+      <c r="E94">
+        <v>0.004128059389883498</v>
+      </c>
+      <c r="F94">
+        <v>0.01926552393865122</v>
+      </c>
+      <c r="G94">
+        <v>-0.03835665060528003</v>
+      </c>
+      <c r="H94">
+        <v>-0.1062422925040775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1180322594836557</v>
+        <v>-0.1285966348806567</v>
       </c>
       <c r="C95">
-        <v>-0.03828073680695759</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.00943870065175233</v>
+      </c>
+      <c r="D95">
+        <v>0.05746612087124638</v>
+      </c>
+      <c r="E95">
+        <v>-0.01190592892346849</v>
+      </c>
+      <c r="F95">
+        <v>0.05275825367456193</v>
+      </c>
+      <c r="G95">
+        <v>-0.01868271359015654</v>
+      </c>
+      <c r="H95">
+        <v>0.016998785124196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.201587328168909</v>
+        <v>-0.2110265613182863</v>
       </c>
       <c r="C97">
-        <v>-0.04580933497086576</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.006641594556571626</v>
+      </c>
+      <c r="D97">
+        <v>-0.08440255850615479</v>
+      </c>
+      <c r="E97">
+        <v>0.2846201975806212</v>
+      </c>
+      <c r="F97">
+        <v>-0.8723844392229254</v>
+      </c>
+      <c r="G97">
+        <v>0.1102245498139056</v>
+      </c>
+      <c r="H97">
+        <v>0.01679117003226939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2454716834421177</v>
+        <v>-0.273034165947298</v>
       </c>
       <c r="C98">
-        <v>-0.0852889642986184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03598344232533218</v>
+      </c>
+      <c r="D98">
+        <v>0.0657549837704761</v>
+      </c>
+      <c r="E98">
+        <v>0.159218550534352</v>
+      </c>
+      <c r="F98">
+        <v>0.06956016563010751</v>
+      </c>
+      <c r="G98">
+        <v>-0.2845602383647482</v>
+      </c>
+      <c r="H98">
+        <v>0.2015992939276262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4636321903104667</v>
+        <v>-0.2837778927321347</v>
       </c>
       <c r="C99">
-        <v>0.871445103660706</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9373302929576893</v>
+      </c>
+      <c r="D99">
+        <v>-0.1225047534949135</v>
+      </c>
+      <c r="E99">
+        <v>-0.06544275788799729</v>
+      </c>
+      <c r="F99">
+        <v>0.04100168942339244</v>
+      </c>
+      <c r="G99">
+        <v>-0.01119804820670119</v>
+      </c>
+      <c r="H99">
+        <v>-0.06221215240965852</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04062768782356254</v>
+        <v>-0.04832087711809457</v>
       </c>
       <c r="C101">
-        <v>-0.03176663433428555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02511282446067093</v>
+      </c>
+      <c r="D101">
+        <v>0.005866034100476794</v>
+      </c>
+      <c r="E101">
+        <v>-0.05528185118410738</v>
+      </c>
+      <c r="F101">
+        <v>2.520556715879397e-05</v>
+      </c>
+      <c r="G101">
+        <v>0.001824604032183948</v>
+      </c>
+      <c r="H101">
+        <v>-0.08247391385038266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
